--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vcan-Selp.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vcan-Selp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.529781</v>
+        <v>0.2364713333333333</v>
       </c>
       <c r="H2">
-        <v>4.589343</v>
+        <v>0.709414</v>
       </c>
       <c r="I2">
-        <v>0.01315047351877542</v>
+        <v>0.002249544876489787</v>
       </c>
       <c r="J2">
-        <v>0.01315047351877542</v>
+        <v>0.002249544876489787</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.47090666666667</v>
+        <v>2.866432</v>
       </c>
       <c r="N2">
-        <v>52.41272000000001</v>
+        <v>8.599295999999999</v>
       </c>
       <c r="O2">
-        <v>0.9803569739482672</v>
+        <v>0.9456981836489474</v>
       </c>
       <c r="P2">
-        <v>0.9803569739482673</v>
+        <v>0.9456981836489475</v>
       </c>
       <c r="Q2">
-        <v>26.72666107144</v>
+        <v>0.6778289969493333</v>
       </c>
       <c r="R2">
-        <v>240.53994964296</v>
+        <v>6.100460972543999</v>
       </c>
       <c r="S2">
-        <v>0.01289215842485349</v>
+        <v>0.002127390503733188</v>
       </c>
       <c r="T2">
-        <v>0.01289215842485349</v>
+        <v>0.002127390503733188</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.529781</v>
+        <v>0.2364713333333333</v>
       </c>
       <c r="H3">
-        <v>4.589343</v>
+        <v>0.709414</v>
       </c>
       <c r="I3">
-        <v>0.01315047351877542</v>
+        <v>0.002249544876489787</v>
       </c>
       <c r="J3">
-        <v>0.01315047351877542</v>
+        <v>0.002249544876489787</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,27 +620,27 @@
         <v>0.49377</v>
       </c>
       <c r="O3">
-        <v>0.009235751608129396</v>
+        <v>0.05430181635105255</v>
       </c>
       <c r="P3">
-        <v>0.009235751608129398</v>
+        <v>0.05430181635105256</v>
       </c>
       <c r="Q3">
-        <v>0.25178665479</v>
+        <v>0.03892081675333333</v>
       </c>
       <c r="R3">
-        <v>2.26607989311</v>
+        <v>0.35028735078</v>
       </c>
       <c r="S3">
-        <v>0.0001214545069486931</v>
+        <v>0.0001221543727565996</v>
       </c>
       <c r="T3">
-        <v>0.0001214545069486932</v>
+        <v>0.0001221543727565996</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.529781</v>
+        <v>103.676216</v>
       </c>
       <c r="H4">
-        <v>4.589343</v>
+        <v>311.028648</v>
       </c>
       <c r="I4">
-        <v>0.01315047351877542</v>
+        <v>0.9862688099613843</v>
       </c>
       <c r="J4">
-        <v>0.01315047351877542</v>
+        <v>0.9862688099613843</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1854676666666667</v>
+        <v>2.866432</v>
       </c>
       <c r="N4">
-        <v>0.556403</v>
+        <v>8.599295999999999</v>
       </c>
       <c r="O4">
-        <v>0.01040727444360334</v>
+        <v>0.9456981836489474</v>
       </c>
       <c r="P4">
-        <v>0.01040727444360334</v>
+        <v>0.9456981836489475</v>
       </c>
       <c r="Q4">
-        <v>0.283724912581</v>
+        <v>297.180823181312</v>
       </c>
       <c r="R4">
-        <v>2.553524213229</v>
+        <v>2674.627408631808</v>
       </c>
       <c r="S4">
-        <v>0.0001368605869732339</v>
+        <v>0.9327126221700901</v>
       </c>
       <c r="T4">
-        <v>0.0001368605869732339</v>
+        <v>0.9327126221700902</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>311.028648</v>
       </c>
       <c r="I5">
-        <v>0.8912330150752564</v>
+        <v>0.9862688099613843</v>
       </c>
       <c r="J5">
-        <v>0.8912330150752563</v>
+        <v>0.9862688099613843</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>17.47090666666667</v>
+        <v>0.16459</v>
       </c>
       <c r="N5">
-        <v>52.41272000000001</v>
+        <v>0.49377</v>
       </c>
       <c r="O5">
-        <v>0.9803569739482672</v>
+        <v>0.05430181635105255</v>
       </c>
       <c r="P5">
-        <v>0.9803569739482673</v>
+        <v>0.05430181635105256</v>
       </c>
       <c r="Q5">
-        <v>1811.317493289173</v>
+        <v>17.06406839144</v>
       </c>
       <c r="R5">
-        <v>16301.85743960256</v>
+        <v>153.57661552296</v>
       </c>
       <c r="S5">
-        <v>0.8737265017419688</v>
+        <v>0.05355618779129424</v>
       </c>
       <c r="T5">
-        <v>0.8737265017419688</v>
+        <v>0.05355618779129425</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,7 +773,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,51 +782,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>103.676216</v>
+        <v>1.206946333333333</v>
       </c>
       <c r="H6">
-        <v>311.028648</v>
+        <v>3.620839</v>
       </c>
       <c r="I6">
-        <v>0.8912330150752564</v>
+        <v>0.01148164516212593</v>
       </c>
       <c r="J6">
-        <v>0.8912330150752563</v>
+        <v>0.01148164516212593</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.16459</v>
+        <v>2.866432</v>
       </c>
       <c r="N6">
-        <v>0.49377</v>
+        <v>8.599295999999999</v>
       </c>
       <c r="O6">
-        <v>0.009235751608129396</v>
+        <v>0.9456981836489474</v>
       </c>
       <c r="P6">
-        <v>0.009235751608129398</v>
+        <v>0.9456981836489475</v>
       </c>
       <c r="Q6">
-        <v>17.06406839144</v>
+        <v>3.459629592149333</v>
       </c>
       <c r="R6">
-        <v>153.57661552296</v>
+        <v>31.136666329344</v>
       </c>
       <c r="S6">
-        <v>0.008231206752199309</v>
+        <v>0.01085817097512422</v>
       </c>
       <c r="T6">
-        <v>0.008231206752199311</v>
+        <v>0.01085817097512422</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,7 +835,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,232 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>103.676216</v>
+        <v>1.206946333333333</v>
       </c>
       <c r="H7">
-        <v>311.028648</v>
+        <v>3.620839</v>
       </c>
       <c r="I7">
-        <v>0.8912330150752564</v>
+        <v>0.01148164516212593</v>
       </c>
       <c r="J7">
-        <v>0.8912330150752563</v>
+        <v>0.01148164516212593</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1854676666666667</v>
+        <v>0.16459</v>
       </c>
       <c r="N7">
-        <v>0.556403</v>
+        <v>0.49377</v>
       </c>
       <c r="O7">
-        <v>0.01040727444360334</v>
+        <v>0.05430181635105255</v>
       </c>
       <c r="P7">
-        <v>0.01040727444360334</v>
+        <v>0.05430181635105256</v>
       </c>
       <c r="Q7">
-        <v>19.22858587034933</v>
+        <v>0.1986512970033333</v>
       </c>
       <c r="R7">
-        <v>173.057272833144</v>
+        <v>1.78786167303</v>
       </c>
       <c r="S7">
-        <v>0.009275306581088267</v>
+        <v>0.0006234741870017133</v>
       </c>
       <c r="T7">
-        <v>0.009275306581088265</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>11.12297</v>
-      </c>
-      <c r="H8">
-        <v>33.36891</v>
-      </c>
-      <c r="I8">
-        <v>0.09561651140596822</v>
-      </c>
-      <c r="J8">
-        <v>0.09561651140596822</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>17.47090666666667</v>
-      </c>
-      <c r="N8">
-        <v>52.41272000000001</v>
-      </c>
-      <c r="O8">
-        <v>0.9803569739482672</v>
-      </c>
-      <c r="P8">
-        <v>0.9803569739482673</v>
-      </c>
-      <c r="Q8">
-        <v>194.3283707261334</v>
-      </c>
-      <c r="R8">
-        <v>1748.9553365352</v>
-      </c>
-      <c r="S8">
-        <v>0.09373831378144497</v>
-      </c>
-      <c r="T8">
-        <v>0.09373831378144498</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>11.12297</v>
-      </c>
-      <c r="H9">
-        <v>33.36891</v>
-      </c>
-      <c r="I9">
-        <v>0.09561651140596822</v>
-      </c>
-      <c r="J9">
-        <v>0.09561651140596822</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.16459</v>
-      </c>
-      <c r="N9">
-        <v>0.49377</v>
-      </c>
-      <c r="O9">
-        <v>0.009235751608129396</v>
-      </c>
-      <c r="P9">
-        <v>0.009235751608129398</v>
-      </c>
-      <c r="Q9">
-        <v>1.8307296323</v>
-      </c>
-      <c r="R9">
-        <v>16.4765666907</v>
-      </c>
-      <c r="S9">
-        <v>0.0008830903489813937</v>
-      </c>
-      <c r="T9">
-        <v>0.0008830903489813939</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>11.12297</v>
-      </c>
-      <c r="H10">
-        <v>33.36891</v>
-      </c>
-      <c r="I10">
-        <v>0.09561651140596822</v>
-      </c>
-      <c r="J10">
-        <v>0.09561651140596822</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.1854676666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.556403</v>
-      </c>
-      <c r="O10">
-        <v>0.01040727444360334</v>
-      </c>
-      <c r="P10">
-        <v>0.01040727444360334</v>
-      </c>
-      <c r="Q10">
-        <v>2.062951292303334</v>
-      </c>
-      <c r="R10">
-        <v>18.56656163073</v>
-      </c>
-      <c r="S10">
-        <v>0.0009951072755418405</v>
-      </c>
-      <c r="T10">
-        <v>0.0009951072755418403</v>
+        <v>0.0006234741870017134</v>
       </c>
     </row>
   </sheetData>
